--- a/SP_Sklad/TempLate/RepOnExpenditure.xlsx
+++ b/SP_Sklad/TempLate/RepOnExpenditure.xlsx
@@ -16,7 +16,7 @@
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -55,12 +55,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="186" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
-    <numFmt numFmtId="187" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="188" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;\ h:mm;@"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="167" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;\ h:mm;@"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -68,13 +68,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -358,92 +351,79 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="187" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -816,11 +796,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:H98"/>
+  <dimension ref="B1:H11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -836,134 +816,134 @@
     <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="21" t="s">
+    <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+    <row r="2" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="15" t="e">
+      <c r="C3" s="11" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="13"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="9"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="15" t="e">
+      <c r="C4" s="11" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="13"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="9"/>
     </row>
-    <row r="5" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="15" t="e">
+      <c r="C5" s="11" t="e">
         <f>XLRPARAMS_ctype</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="13"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="22" t="s">
+    <row r="6" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="22" t="s">
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="23"/>
+    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="22"/>
     </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="19" t="e">
+    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="e">
         <f>DocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="18" t="e">
+      <c r="C9" s="14" t="e">
         <f>DocList_DOCNUM</f>
         <v>#NAME?</v>
       </c>
-      <c r="D9" s="12" t="e">
+      <c r="D9" s="8" t="e">
         <f>DocList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="30" t="e">
+      <c r="E9" s="16" t="e">
         <f>DocList_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="10" t="e">
+      <c r="F9" s="17"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="6" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="33" t="s">
+    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="17" t="s">
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -972,115 +952,10 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="5"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="E7:G8"/>

--- a/SP_Sklad/TempLate/RepOnExpenditure.xlsx
+++ b/SP_Sklad/TempLate/RepOnExpenditure.xlsx
@@ -54,11 +54,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
-    <numFmt numFmtId="167" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;\ h:mm;@"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -381,9 +380,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -425,6 +421,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +799,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -817,24 +816,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
     </row>
     <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="10" t="s">
@@ -879,35 +878,35 @@
     </row>
     <row r="6" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="21" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="22"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="22"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="e">
+      <c r="B9" s="29" t="e">
         <f>DocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
@@ -919,12 +918,12 @@
         <f>DocList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="16" t="e">
+      <c r="E9" s="15" t="e">
         <f>DocList_CHARGENAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
       <c r="H9" s="6" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
@@ -934,11 +933,11 @@
       <c r="B10" s="5"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="19" t="s">
+      <c r="E10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="13" t="s">
         <v>7</v>
       </c>

--- a/SP_Sklad/TempLate/RepOnExpenditure.xlsx
+++ b/SP_Sklad/TempLate/RepOnExpenditure.xlsx
@@ -10,7 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="DocList">Лист1!$A$9:$H$10</definedName>
+    <definedName name="ChargeTypeGroup">Лист1!$A$9:$E$12</definedName>
+    <definedName name="DocList">Лист1!$A$10:$E$11</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Дата</t>
   </si>
@@ -47,19 +48,21 @@
     <t>sum</t>
   </si>
   <si>
-    <t>Всього по звіту:</t>
+    <t>Разом по звіту:</t>
+  </si>
+  <si>
+    <t>Разом по катогорії:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -67,14 +70,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="53"/>
       <name val="Times New Roman Cyr"/>
       <family val="1"/>
       <charset val="204"/>
@@ -143,15 +138,13 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="56"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color indexed="18"/>
+      <name val="Times New Roman Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -193,19 +192,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color indexed="55"/>
-      </left>
-      <right style="hair">
-        <color indexed="55"/>
-      </right>
-      <top style="hair">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -217,6 +203,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color indexed="55"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
+      <right style="hair">
+        <color indexed="55"/>
+      </right>
+      <top style="hair">
+        <color indexed="55"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="hair">
         <color indexed="55"/>
       </left>
@@ -224,7 +249,24 @@
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -238,79 +280,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top style="thin">
-        <color indexed="55"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -319,7 +288,9 @@
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -330,17 +301,6 @@
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="55"/>
-      </left>
-      <right style="thin">
-        <color indexed="55"/>
-      </right>
-      <top/>
       <bottom style="hair">
         <color indexed="55"/>
       </bottom>
@@ -350,80 +310,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="22" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,173 +751,162 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:H11"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-    </row>
-    <row r="2" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    </row>
+    <row r="3" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="e">
+      <c r="C3" s="4" t="e">
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="e">
+      <c r="C4" s="4" t="e">
         <f>XLRPARAMS_KAID</f>
         <v>#NAME?</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="2:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="e">
+      <c r="C5" s="4" t="e">
         <f>XLRPARAMS_ctype</f>
         <v>#NAME?</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="2:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>0</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>3</v>
       </c>
       <c r="D7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="20" t="s">
+      <c r="E7" s="20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="21"/>
-    </row>
-    <row r="9" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="e">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="e">
+        <f>ChargeTypeGroup_ChargeName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5" t="e">
+        <f>DocList_DOCNUM</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C10" s="11" t="e">
         <f>DocList_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="14" t="e">
-        <f>DocList_DOCNUM</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D9" s="8" t="e">
+      <c r="D10" s="6" t="e">
         <f>DocList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E9" s="15" t="e">
-        <f>DocList_CHARGENAME</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="6" t="e">
+      <c r="E10" s="7" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="18" t="s">
+    <row r="11" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="8" t="e">
+        <f>SummaryField_Total</f>
+        <v>#NAME?</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="B1:H1"/>
+  <mergeCells count="10">
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/RepOnExpenditure.xlsx
+++ b/SP_Sklad/TempLate/RepOnExpenditure.xlsx
@@ -10,8 +10,8 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ChargeTypeGroup">Лист1!$A$9:$E$12</definedName>
-    <definedName name="DocList">Лист1!$A$10:$E$11</definedName>
+    <definedName name="ChargeTypeGroup">Лист1!$A$9:$F$12</definedName>
+    <definedName name="DocList">Лист1!$A$10:$F$11</definedName>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Дата</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Разом по катогорії:</t>
+  </si>
+  <si>
+    <t>Видав</t>
   </si>
 </sst>
 </file>
@@ -170,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -306,11 +309,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -339,6 +355,18 @@
     <xf numFmtId="22" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -378,8 +406,8 @@
     <xf numFmtId="165" fontId="6" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -751,7 +779,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:E14"/>
+  <dimension ref="B1:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -764,25 +792,28 @@
     <col min="2" max="2" width="15.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="1" customWidth="1"/>
     <col min="4" max="4" width="49" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="32.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="19" t="s">
+    <row r="1" spans="2:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="2:5" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="2:6" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -790,9 +821,9 @@
         <f>CONCATENATE("з "&amp;XLRPARAMS_StartDate," по "&amp;XLRPARAMS_EndDate)</f>
         <v>#NAME?</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
@@ -801,9 +832,10 @@
         <v>#NAME?</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="2:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,39 +844,45 @@
         <v>#NAME?</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="2:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="20" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" ht="7.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-    </row>
-    <row r="9" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="15" t="e">
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="25"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="19" t="e">
         <f>ChargeTypeGroup_ChargeName</f>
         <v>#NAME?</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="17"/>
-    </row>
-    <row r="10" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+    </row>
+    <row r="10" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="5" t="e">
         <f>DocList_DOCNUM</f>
         <v>#NAME?</v>
@@ -857,56 +895,65 @@
         <f>DocList_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="E10" s="7" t="e">
+      <c r="E10" s="6" t="e">
+        <f>DocList_EmployeeName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F10" s="7" t="e">
         <f>DocList_TOTAL</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="22" t="s">
+    <row r="11" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="2:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12" t="s">
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="2:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="8" t="e">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8" t="e">
         <f>SummaryField_Total</f>
         <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B9:F9"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
